--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简单结果" sheetId="5" r:id="rId1"/>
     <sheet name="无监督" sheetId="1" r:id="rId2"/>
     <sheet name="半监督" sheetId="2" r:id="rId3"/>
+    <sheet name="对k的敏感度" sheetId="6" r:id="rId4"/>
+    <sheet name="两个参数" sheetId="7" r:id="rId5"/>
+    <sheet name="传递层数" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="64">
   <si>
     <t>实验时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,19 +166,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>k=5，传递所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=5，传递5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ORL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k=5，传递所有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k=5，传递5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORL</t>
+    <t>LLRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路径加权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无加权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等概率加权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIL20的数据集后面的三个改进算法基本都是1，所以没有进行后续的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个数据集每一类的元素很少，只有10个，所以使用这个数据集进行了k值敏感度的简单实验，其中LLRR的k值敏感度表现为超过一定的阈值结果基本会维持最好，而我的三个改进算法表现为存在一个极值，使得算法的结果最佳，从目前的测试来看，LLRR的k&gt;4就可以获得最佳的效果而，我的改进算法最佳值大约是4，目前还没有足够的实验可以表明这个值是否为固定的，但是直观的想应该是与数据的特点有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加粗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示结果由于LRRADP,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示优于两种原始算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIL20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORL64x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orl3232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load Yale_64x64;</t>
+  </si>
+  <si>
+    <t>等概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无加权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对k的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无加权k=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等概率加权k=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NJW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yale64*64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YaleBex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yale32*32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +366,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -337,12 +496,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,9 +513,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,17 +821,17 @@
     <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -677,7 +851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -690,14 +864,14 @@
       <c r="D3" s="6">
         <v>0.5234375</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.96875</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>0.96875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -710,14 +884,21 @@
       <c r="D4" s="6">
         <v>0.36875000000000002</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.67708333333333304</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0.70416666666666705</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -730,14 +911,19 @@
       <c r="D5" s="6">
         <v>0.33085937500000001</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>0.71406250000000004</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>0.70273437500000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N5" s="25"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -750,14 +936,14 @@
       <c r="D6" s="6">
         <v>0.31374999999999997</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>0.73406249999999995</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -770,14 +956,14 @@
       <c r="D7" s="6">
         <v>0.29166666666666702</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>0.69322916666666701</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>0.68203124999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -790,14 +976,14 @@
       <c r="D8" s="6">
         <v>0.23255208333333299</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>0.56809895833333302</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0.54322916666666698</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>20</v>
       </c>
@@ -810,187 +996,328 @@
       <c r="D9" s="10">
         <v>0.22859375000000001</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0.52445312499999996</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0.53882812499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>0.515625</v>
+      </c>
+      <c r="C11">
+        <v>0.28554687499999998</v>
+      </c>
+      <c r="D11">
+        <v>0.26432291666666702</v>
+      </c>
+      <c r="E11">
+        <v>0.22109375000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.18281249999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.19687499999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.23236607142857099</v>
+      </c>
+      <c r="I11">
+        <v>0.20703125</v>
+      </c>
+      <c r="J11">
+        <v>0.19748263888888901</v>
+      </c>
+      <c r="K11">
+        <v>0.2059375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>0.51328125000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.275390625</v>
+      </c>
+      <c r="D12">
+        <v>0.20234374999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.15664062500000001</v>
+      </c>
+      <c r="F12">
+        <v>0.14031250000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.122005208333333</v>
+      </c>
+      <c r="H12">
+        <v>0.118526785714286</v>
+      </c>
+      <c r="I12">
+        <v>0.10732421875000001</v>
+      </c>
+      <c r="J12">
+        <v>9.8003472222221999E-2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C31" s="4">
         <v>0.95</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D31" s="15">
         <v>0.95</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E31" s="15">
         <v>0.95</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B32" s="4">
         <v>0.82333333333333303</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C32" s="4">
         <v>0.67</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D32" s="6">
         <v>0.78</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E32" s="6">
         <v>0.76333333333333298</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F32" s="7">
         <v>0.73333333333333295</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B33" s="4">
         <v>0.66749999999999998</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C33" s="4">
         <v>0.5675</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D33" s="6">
         <v>0.6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E33" s="6">
         <v>0.61499999999999999</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F33" s="12">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B34" s="4">
         <v>0.72</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C34" s="4">
         <v>0.56399999999999995</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D34" s="6">
         <v>0.52</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E34" s="6">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F34" s="12">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>6</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B35" s="4">
         <v>0.8</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C35" s="4">
         <v>0.48166666666666702</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D35" s="6">
         <v>0.65666666666666695</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E35" s="6">
         <v>0.63166666666666704</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F35" s="7">
         <v>0.77666666666666695</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B36" s="4">
         <v>0.74916666666666698</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C36" s="4">
         <v>0.57250000000000001</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D36" s="4">
         <v>0.43333333333333302</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E36" s="4">
         <v>0.543333333333333</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F36" s="7">
         <v>0.745</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>20</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B37" s="9">
         <v>0.66900000000000004</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C37" s="9">
         <v>0.442</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D37" s="10">
         <v>0.50900000000000001</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E37" s="10">
         <v>0.50700000000000001</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F37" s="14">
         <v>0.71899999999999997</v>
       </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G29:K38"/>
+    <mergeCell ref="N4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1000,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102:H106"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,10 +1379,10 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="26">
         <v>2</v>
       </c>
       <c r="G2">
@@ -1075,8 +1402,8 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3">
         <v>0.5078125</v>
       </c>
@@ -1094,8 +1421,8 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4">
         <v>0.5234375</v>
       </c>
@@ -1113,8 +1440,8 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5">
         <v>0.96875</v>
       </c>
@@ -1132,8 +1459,8 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6">
         <v>0.96875</v>
       </c>
@@ -1148,8 +1475,8 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
         <v>3</v>
       </c>
       <c r="G7">
@@ -1166,8 +1493,8 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8">
         <v>0.34895833333333298</v>
       </c>
@@ -1182,8 +1509,8 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9">
         <v>0.39583333333333298</v>
       </c>
@@ -1198,8 +1525,8 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10">
         <v>0.67708333333333304</v>
       </c>
@@ -1214,8 +1541,8 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11">
         <v>0.71354166666666696</v>
       </c>
@@ -1230,8 +1557,8 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26">
         <v>4</v>
       </c>
       <c r="G12">
@@ -1248,8 +1575,8 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13">
         <v>0.29296875</v>
       </c>
@@ -1264,8 +1591,8 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14">
         <v>0.3515625</v>
       </c>
@@ -1280,8 +1607,8 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
       <c r="G15">
         <v>0.7421875</v>
       </c>
@@ -1296,8 +1623,8 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="G16">
         <v>0.76171875</v>
       </c>
@@ -1312,8 +1639,8 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
         <v>5</v>
       </c>
       <c r="G17">
@@ -1330,8 +1657,8 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="G18">
         <v>0.23125000000000001</v>
       </c>
@@ -1346,8 +1673,8 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
       <c r="G19">
         <v>0.33437499999999998</v>
       </c>
@@ -1362,8 +1689,8 @@
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
       <c r="G20">
         <v>0.76249999999999996</v>
       </c>
@@ -1378,8 +1705,8 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
       <c r="G21">
         <v>0.83437499999999998</v>
       </c>
@@ -1394,8 +1721,8 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
         <v>6</v>
       </c>
       <c r="G22">
@@ -1412,8 +1739,8 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
       <c r="G23">
         <v>0.21354166666666699</v>
       </c>
@@ -1428,8 +1755,8 @@
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="G24">
         <v>0.32291666666666702</v>
       </c>
@@ -1444,8 +1771,8 @@
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="G25">
         <v>0.7421875</v>
       </c>
@@ -1460,8 +1787,8 @@
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="G26">
         <v>0.74739583333333304</v>
       </c>
@@ -1476,8 +1803,8 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26">
         <v>12</v>
       </c>
       <c r="G27">
@@ -1494,8 +1821,8 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28">
         <v>0.16015625</v>
       </c>
@@ -1510,8 +1837,8 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
       <c r="G29">
         <v>0.24609375</v>
       </c>
@@ -1526,8 +1853,8 @@
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
       <c r="G30">
         <v>0.60286458333333304</v>
       </c>
@@ -1542,8 +1869,8 @@
       <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
       <c r="G31">
         <v>0.5703125</v>
       </c>
@@ -1558,8 +1885,8 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26">
         <v>20</v>
       </c>
       <c r="G32">
@@ -1576,8 +1903,8 @@
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
       <c r="G33">
         <v>0.125</v>
       </c>
@@ -1592,8 +1919,8 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
       <c r="G34">
         <v>0.2578125</v>
       </c>
@@ -1608,8 +1935,8 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
       <c r="G35">
         <v>0.56328124999999996</v>
       </c>
@@ -1624,8 +1951,8 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
       <c r="G36">
         <v>0.57890624999999996</v>
       </c>
@@ -1644,10 +1971,10 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="26">
         <v>2</v>
       </c>
       <c r="G37">
@@ -1667,8 +1994,8 @@
       <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
       <c r="G38">
         <v>0.50694444444444398</v>
       </c>
@@ -1686,8 +2013,8 @@
       <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
       <c r="G39">
         <v>1</v>
       </c>
@@ -1705,8 +2032,8 @@
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
       <c r="G40">
         <v>1</v>
       </c>
@@ -1724,8 +2051,8 @@
       <c r="D41" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
       <c r="G41">
         <v>0.78472222222222199</v>
       </c>
@@ -1740,8 +2067,8 @@
       <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26">
         <v>3</v>
       </c>
       <c r="G42">
@@ -1758,8 +2085,8 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
       <c r="G43">
         <v>1</v>
       </c>
@@ -1774,8 +2101,8 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
       <c r="G44">
         <v>1</v>
       </c>
@@ -1790,8 +2117,8 @@
       <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
       <c r="G45">
         <v>1</v>
       </c>
@@ -1806,8 +2133,8 @@
       <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
       <c r="G46">
         <v>1</v>
       </c>
@@ -1822,8 +2149,8 @@
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20">
+      <c r="E47" s="26"/>
+      <c r="F47" s="26">
         <v>4</v>
       </c>
     </row>
@@ -1831,36 +2158,36 @@
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26">
         <v>5</v>
       </c>
     </row>
@@ -1868,36 +2195,36 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20">
+      <c r="E57" s="26"/>
+      <c r="F57" s="26">
         <v>6</v>
       </c>
     </row>
@@ -1905,36 +2232,36 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20">
+      <c r="E62" s="26"/>
+      <c r="F62" s="26">
         <v>12</v>
       </c>
     </row>
@@ -1942,36 +2269,36 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20">
+      <c r="E67" s="26"/>
+      <c r="F67" s="26">
         <v>20</v>
       </c>
     </row>
@@ -1979,29 +2306,29 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
@@ -2011,10 +2338,10 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" s="20">
+      <c r="E72" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="26">
         <v>2</v>
       </c>
       <c r="G72">
@@ -2034,8 +2361,8 @@
       <c r="D73" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
       <c r="G73">
         <v>0.95</v>
       </c>
@@ -2053,8 +2380,8 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
       <c r="G74">
         <v>0.95</v>
       </c>
@@ -2070,10 +2397,10 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
       <c r="G75">
         <v>0.95</v>
       </c>
@@ -2089,10 +2416,10 @@
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
       <c r="G76">
         <v>1</v>
       </c>
@@ -2107,8 +2434,8 @@
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20">
+      <c r="E77" s="26"/>
+      <c r="F77" s="26">
         <v>3</v>
       </c>
       <c r="G77">
@@ -2125,8 +2452,8 @@
       <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
       <c r="G78">
         <v>0.76666666666666705</v>
       </c>
@@ -2141,8 +2468,8 @@
       <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
       <c r="G79">
         <v>0.9</v>
       </c>
@@ -2157,8 +2484,8 @@
       <c r="B80" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
       <c r="G80">
         <v>0.83333333333333304</v>
       </c>
@@ -2173,8 +2500,8 @@
       <c r="B81" t="s">
         <v>21</v>
       </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
       <c r="G81">
         <v>0.73333333333333295</v>
       </c>
@@ -2189,8 +2516,8 @@
       <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20">
+      <c r="E82" s="26"/>
+      <c r="F82" s="26">
         <v>4</v>
       </c>
       <c r="G82">
@@ -2207,8 +2534,8 @@
       <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
       <c r="G83">
         <v>0.6</v>
       </c>
@@ -2223,8 +2550,8 @@
       <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
       <c r="G84">
         <v>0.67500000000000004</v>
       </c>
@@ -2239,8 +2566,8 @@
       <c r="B85" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
       <c r="G85">
         <v>0.67500000000000004</v>
       </c>
@@ -2255,8 +2582,8 @@
       <c r="B86" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
       <c r="G86">
         <v>0.75</v>
       </c>
@@ -2271,8 +2598,8 @@
       <c r="B87" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20">
+      <c r="E87" s="26"/>
+      <c r="F87" s="26">
         <v>5</v>
       </c>
       <c r="G87">
@@ -2289,8 +2616,8 @@
       <c r="B88" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
       <c r="G88">
         <v>0.64</v>
       </c>
@@ -2305,8 +2632,8 @@
       <c r="B89" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
       <c r="G89">
         <v>0.57999999999999996</v>
       </c>
@@ -2321,8 +2648,8 @@
       <c r="B90" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
       <c r="G90">
         <v>0.57999999999999996</v>
       </c>
@@ -2337,8 +2664,8 @@
       <c r="B91" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
       <c r="G91">
         <v>0.76</v>
       </c>
@@ -2353,8 +2680,8 @@
       <c r="B92" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20">
+      <c r="E92" s="26"/>
+      <c r="F92" s="26">
         <v>6</v>
       </c>
       <c r="G92">
@@ -2371,8 +2698,8 @@
       <c r="B93" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
       <c r="G93">
         <v>0.6</v>
       </c>
@@ -2387,8 +2714,8 @@
       <c r="B94" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
       <c r="G94">
         <v>0.66666666666666696</v>
       </c>
@@ -2403,8 +2730,8 @@
       <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
       <c r="G95">
         <v>0.63333333333333297</v>
       </c>
@@ -2419,8 +2746,8 @@
       <c r="B96" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
       <c r="G96">
         <v>0.8</v>
       </c>
@@ -2435,8 +2762,8 @@
       <c r="B97" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20">
+      <c r="E97" s="26"/>
+      <c r="F97" s="26">
         <v>12</v>
       </c>
       <c r="G97">
@@ -2453,8 +2780,8 @@
       <c r="B98" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
       <c r="G98">
         <v>0.61666666666666703</v>
       </c>
@@ -2469,8 +2796,8 @@
       <c r="B99" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
       <c r="G99">
         <v>0.43333333333333302</v>
       </c>
@@ -2485,8 +2812,8 @@
       <c r="B100" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
       <c r="G100">
         <v>0.56666666666666698</v>
       </c>
@@ -2501,8 +2828,8 @@
       <c r="B101" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
       <c r="G101">
         <v>0.81666666666666698</v>
       </c>
@@ -2517,8 +2844,8 @@
       <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20">
+      <c r="E102" s="26"/>
+      <c r="F102" s="26">
         <v>20</v>
       </c>
       <c r="G102">
@@ -2535,8 +2862,8 @@
       <c r="B103" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
       <c r="G103">
         <v>0.47</v>
       </c>
@@ -2551,8 +2878,8 @@
       <c r="B104" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
       <c r="G104">
         <v>0.51</v>
       </c>
@@ -2567,8 +2894,8 @@
       <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
       <c r="G105">
         <v>0.51500000000000001</v>
       </c>
@@ -2583,8 +2910,8 @@
       <c r="B106" t="s">
         <v>21</v>
       </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
       <c r="G106">
         <v>0.76</v>
       </c>
@@ -2595,32 +2922,1025 @@
         <v>2.4013884872437E-2</v>
       </c>
     </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26">
+        <v>30</v>
+      </c>
+      <c r="G107">
+        <v>0.75</v>
+      </c>
+      <c r="H107">
+        <v>0.705666666666667</v>
+      </c>
+      <c r="I107">
+        <v>3.0552525102247E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108">
+        <v>0.50666666666666704</v>
+      </c>
+      <c r="H108">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I108">
+        <v>2.5193081550789E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109">
+        <v>0.52666666666666695</v>
+      </c>
+      <c r="H109">
+        <v>0.52566666666666695</v>
+      </c>
+      <c r="I109">
+        <v>2.2498285257019999E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H110">
+        <v>0.56166666666666698</v>
+      </c>
+      <c r="I110">
+        <v>6.7128033186640004E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111">
+        <v>0.72</v>
+      </c>
+      <c r="H111">
+        <v>0.70133333333333303</v>
+      </c>
+      <c r="I111">
+        <v>1.7011252630226001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>5</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0.498</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E116" s="11">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G116">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="H116">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>10</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F117" s="12">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G117">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H117">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>15</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.76266666666666705</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0.48933333333333301</v>
+      </c>
+      <c r="E118" s="11">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F118" s="12">
+        <v>0.75733333333333297</v>
+      </c>
+      <c r="G118">
+        <v>0.66066666666666696</v>
+      </c>
+      <c r="H118">
+        <v>0.53066666666666695</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>20</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0.438</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="E119" s="11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F119" s="12">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="G119">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="H119">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>25</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="E120" s="11">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F120" s="12">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="G120">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="H120">
+        <v>0.48720000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>30</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.46666666666666701</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0.46766666666666701</v>
+      </c>
+      <c r="E121" s="11">
+        <v>0.63666666666666705</v>
+      </c>
+      <c r="F121" s="12">
+        <v>0.68433333333333302</v>
+      </c>
+      <c r="G121">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H121">
+        <v>0.51666666666666705</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>35</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.70205882352941196</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0.49058823529411799</v>
+      </c>
+      <c r="D122" s="6">
+        <v>0.48235294117647098</v>
+      </c>
+      <c r="E122" s="11">
+        <v>0.623529411764706</v>
+      </c>
+      <c r="F122" s="12">
+        <v>0.70823529411764696</v>
+      </c>
+      <c r="G122">
+        <v>0.624285714285714</v>
+      </c>
+      <c r="H122">
+        <v>0.51171428571428601</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="8">
+        <v>40</v>
+      </c>
+      <c r="B123" s="9">
+        <v>0.65475000000000005</v>
+      </c>
+      <c r="C123" s="9">
+        <v>0.47025</v>
+      </c>
+      <c r="D123" s="10">
+        <v>0.46050000000000002</v>
+      </c>
+      <c r="E123" s="13">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="F123" s="14">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G123">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="H123">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H128" t="s">
+        <v>59</v>
+      </c>
+      <c r="I128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>2</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0.63287671232876697</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E129" s="11">
+        <v>0.90410958904109595</v>
+      </c>
+      <c r="F129" s="12">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="H129">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="I129">
+        <v>0.54246575342465797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>3</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.44444444444444497</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0.39393939393939398</v>
+      </c>
+      <c r="D130" s="6">
+        <v>0.39393939393939398</v>
+      </c>
+      <c r="E130" s="11">
+        <v>0.67676767676767702</v>
+      </c>
+      <c r="F130" s="12">
+        <v>0.69090909090909103</v>
+      </c>
+      <c r="H130">
+        <v>0.404878048780488</v>
+      </c>
+      <c r="I130">
+        <v>0.41111111111111098</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>4</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0.48617886178861802</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.47073170731707298</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0.48048780487804899</v>
+      </c>
+      <c r="E131" s="11">
+        <v>0.59512195121951195</v>
+      </c>
+      <c r="F131" s="12">
+        <v>0.43008130081300799</v>
+      </c>
+      <c r="H131">
+        <v>0.38081395348837199</v>
+      </c>
+      <c r="I131">
+        <v>0.473983739837398</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>6</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0.43779069767441903</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0.48255813953488402</v>
+      </c>
+      <c r="E132" s="11">
+        <v>0.712209302325581</v>
+      </c>
+      <c r="F132" s="12">
+        <v>0.64069767441860503</v>
+      </c>
+      <c r="H132" s="27">
+        <v>0.37652582159624398</v>
+      </c>
+      <c r="I132">
+        <v>0.47732558139534897</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>8</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.52065727699530495</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.48262910798122099</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0.46713615023474198</v>
+      </c>
+      <c r="E133" s="11">
+        <v>0.72347417840375605</v>
+      </c>
+      <c r="F133" s="12">
+        <v>0.69248826291079801</v>
+      </c>
+      <c r="H133">
+        <v>0.38981132075471697</v>
+      </c>
+      <c r="I133">
+        <v>0.37605633802816901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>10</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.54981132075471695</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0.42981132075471701</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0.432075471698113</v>
+      </c>
+      <c r="E134" s="11">
+        <v>0.60905660377358495</v>
+      </c>
+      <c r="F134" s="12">
+        <v>0.644528301886792</v>
+      </c>
+      <c r="H134">
+        <v>0.39433962264150901</v>
+      </c>
+      <c r="I134">
+        <v>0.41056603773584899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>12</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.54804804804804796</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0.410810810810811</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0.410810810810811</v>
+      </c>
+      <c r="E135" s="11">
+        <v>0.59129129129129099</v>
+      </c>
+      <c r="F135" s="12">
+        <v>0.66756756756756797</v>
+      </c>
+      <c r="H135">
+        <v>0.44174174174174202</v>
+      </c>
+      <c r="I135">
+        <v>0.445045045045045</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="8">
+        <v>14</v>
+      </c>
+      <c r="B136" s="9">
+        <v>0.514910025706941</v>
+      </c>
+      <c r="C136" s="9">
+        <v>0.40951156812339301</v>
+      </c>
+      <c r="D136" s="10">
+        <v>0.413367609254499</v>
+      </c>
+      <c r="E136" s="13">
+        <v>0.61876606683804602</v>
+      </c>
+      <c r="F136" s="14">
+        <v>0.63701799485861199</v>
+      </c>
+      <c r="H136">
+        <v>0.42724935732647801</v>
+      </c>
+      <c r="I136">
+        <v>0.43470437017994901</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="18">
+        <v>16</v>
+      </c>
+      <c r="B137">
+        <v>0.48041474654377903</v>
+      </c>
+      <c r="C137">
+        <v>0.37649769585253501</v>
+      </c>
+      <c r="D137">
+        <v>0.37419354838709701</v>
+      </c>
+      <c r="E137">
+        <v>0.58986175115207395</v>
+      </c>
+      <c r="F137">
+        <v>0.57027649769585298</v>
+      </c>
+      <c r="H137">
+        <v>0.42603686635944699</v>
+      </c>
+      <c r="I137">
+        <v>0.41658986175115198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="18">
+        <v>18</v>
+      </c>
+      <c r="B138">
+        <v>0.50101419878296205</v>
+      </c>
+      <c r="C138">
+        <v>0.38843813387423898</v>
+      </c>
+      <c r="D138">
+        <v>0.39107505070993898</v>
+      </c>
+      <c r="E138">
+        <v>0.57931034482758603</v>
+      </c>
+      <c r="F138">
+        <v>0.53326572008113604</v>
+      </c>
+      <c r="H138">
+        <v>0.41643002028397602</v>
+      </c>
+      <c r="I138">
+        <v>0.41338742393509098</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="18">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>0.50034782608695705</v>
+      </c>
+      <c r="C139">
+        <v>0.38452173913043503</v>
+      </c>
+      <c r="D139">
+        <v>0.395478260869565</v>
+      </c>
+      <c r="E139">
+        <v>0.59652173913043505</v>
+      </c>
+      <c r="F139">
+        <v>0.60626086956521696</v>
+      </c>
+      <c r="H139">
+        <v>0.43460869565217403</v>
+      </c>
+      <c r="I139">
+        <v>0.40991304347826102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="21"/>
+      <c r="J142" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="21"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O143" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>2</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0.95454545454545503</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0.97727272727272696</v>
+      </c>
+      <c r="D144" s="6">
+        <v>0.972727272727273</v>
+      </c>
+      <c r="E144" s="11">
+        <v>0.86363636363636398</v>
+      </c>
+      <c r="F144" s="12">
+        <v>0.86363636363636398</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0.86363636363636398</v>
+      </c>
+      <c r="L144" s="4">
+        <v>0.95454545454545503</v>
+      </c>
+      <c r="M144" s="6">
+        <v>0.95454545454545503</v>
+      </c>
+      <c r="N144" s="11">
+        <v>0.86363636363636398</v>
+      </c>
+      <c r="O144" s="12">
+        <v>0.90909090909090895</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>3</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="12"/>
+      <c r="J145" s="3">
+        <v>3</v>
+      </c>
+      <c r="K145" s="4"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="12"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>4</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0.64318181818181797</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.49545454545454598</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="E146" s="11">
+        <v>0.59090909090909105</v>
+      </c>
+      <c r="F146" s="12">
+        <v>0.638636363636364</v>
+      </c>
+      <c r="J146" s="3">
+        <v>4</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0.51590909090909098</v>
+      </c>
+      <c r="M146" s="6">
+        <v>0.56136363636363595</v>
+      </c>
+      <c r="N146" s="11">
+        <v>0.63636363636363702</v>
+      </c>
+      <c r="O146" s="12">
+        <v>0.62272727272727302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>6</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0.66060606060606097</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0.57727272727272705</v>
+      </c>
+      <c r="E147" s="11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F147" s="12">
+        <v>0.57878787878787896</v>
+      </c>
+      <c r="J147" s="3">
+        <v>6</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0.59696969696969704</v>
+      </c>
+      <c r="L147" s="4">
+        <v>0.52575757575757598</v>
+      </c>
+      <c r="M147" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N147" s="11">
+        <v>0.60909090909090902</v>
+      </c>
+      <c r="O147" s="12">
+        <v>0.55909090909090897</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>8</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0.58068181818181797</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.60909090909090902</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0.61477272727272703</v>
+      </c>
+      <c r="E148" s="11">
+        <v>0.56477272727272698</v>
+      </c>
+      <c r="F148" s="12">
+        <v>0.60681818181818203</v>
+      </c>
+      <c r="J148" s="3">
+        <v>8</v>
+      </c>
+      <c r="K148" s="4">
+        <v>0.61363636363636398</v>
+      </c>
+      <c r="L148" s="4">
+        <v>0.55909090909090897</v>
+      </c>
+      <c r="M148" s="6">
+        <v>0.56477272727272698</v>
+      </c>
+      <c r="N148" s="11">
+        <v>0.60340909090909101</v>
+      </c>
+      <c r="O148" s="12">
+        <v>0.61818181818181805</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>10</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.59272727272727299</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0.61363636363636398</v>
+      </c>
+      <c r="E149" s="11">
+        <v>0.49454545454545501</v>
+      </c>
+      <c r="F149" s="12">
+        <v>0.58727272727272695</v>
+      </c>
+      <c r="J149" s="3">
+        <v>10</v>
+      </c>
+      <c r="K149" s="4">
+        <v>0.58818181818181803</v>
+      </c>
+      <c r="L149" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="M149" s="6">
+        <v>0.49090909090909102</v>
+      </c>
+      <c r="N149" s="11">
+        <v>0.47454545454545499</v>
+      </c>
+      <c r="O149" s="12">
+        <v>0.58636363636363598</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>12</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0.60227272727272696</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0.58181818181818201</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.58712121212121204</v>
+      </c>
+      <c r="E150" s="11">
+        <v>0.53484848484848502</v>
+      </c>
+      <c r="F150" s="12">
+        <v>0.597727272727273</v>
+      </c>
+      <c r="J150" s="3">
+        <v>12</v>
+      </c>
+      <c r="K150" s="4">
+        <v>0.59242424242424196</v>
+      </c>
+      <c r="L150" s="4">
+        <v>0.490151515151515</v>
+      </c>
+      <c r="M150" s="6">
+        <v>0.476515151515151</v>
+      </c>
+      <c r="N150" s="11">
+        <v>0.47727272727272702</v>
+      </c>
+      <c r="O150" s="12">
+        <v>0.574242424242424</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="8">
+        <v>14</v>
+      </c>
+      <c r="B151" s="9">
+        <v>0.55584415584415603</v>
+      </c>
+      <c r="C151" s="9">
+        <v>0.54610389610389598</v>
+      </c>
+      <c r="D151" s="10">
+        <v>0.55129870129870095</v>
+      </c>
+      <c r="E151" s="13">
+        <v>0.51818181818181797</v>
+      </c>
+      <c r="F151" s="14">
+        <v>0.55129870129870095</v>
+      </c>
+      <c r="J151" s="8">
+        <v>14</v>
+      </c>
+      <c r="K151" s="9">
+        <v>0.54480519480519496</v>
+      </c>
+      <c r="L151" s="9">
+        <v>0.46168831168831198</v>
+      </c>
+      <c r="M151" s="10">
+        <v>0.47922077922077899</v>
+      </c>
+      <c r="N151" s="13">
+        <v>0.446103896103896</v>
+      </c>
+      <c r="O151" s="14">
+        <v>0.53636363636363604</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="29">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="J142:O142"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="E72:E111"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="F82:F86"/>
     <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="F22:F26"/>
     <mergeCell ref="E2:E36"/>
     <mergeCell ref="E37:E71"/>
     <mergeCell ref="F37:F41"/>
     <mergeCell ref="F42:F46"/>
     <mergeCell ref="F47:F51"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="F22:F26"/>
     <mergeCell ref="F27:F31"/>
-    <mergeCell ref="E72:E106"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="F102:F106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2630,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2674,7 +3994,7 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="26">
         <v>2</v>
       </c>
       <c r="F2">
@@ -2694,7 +4014,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="26"/>
       <c r="G3">
         <v>0.98329999999999995</v>
       </c>
@@ -2709,7 +4029,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="26"/>
       <c r="G4">
         <v>0.5</v>
       </c>
@@ -2724,7 +4044,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="26"/>
       <c r="G5">
         <v>0.99170000000000003</v>
       </c>
@@ -2739,7 +4059,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="26"/>
       <c r="G6">
         <v>0.99170000000000003</v>
       </c>
@@ -2754,7 +4074,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="26">
         <v>3</v>
       </c>
       <c r="G7">
@@ -2771,7 +4091,7 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="26"/>
       <c r="G8">
         <v>0.86670000000000003</v>
       </c>
@@ -2786,7 +4106,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="26"/>
       <c r="G9">
         <v>0.69440000000000002</v>
       </c>
@@ -2801,7 +4121,7 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="26"/>
       <c r="G10">
         <v>0.86670000000000003</v>
       </c>
@@ -2816,7 +4136,7 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="26"/>
       <c r="G11">
         <v>0.86670000000000003</v>
       </c>
@@ -2831,7 +4151,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="26">
         <v>4</v>
       </c>
       <c r="G12">
@@ -2848,7 +4168,7 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="26"/>
       <c r="G13">
         <v>0.81669999999999998</v>
       </c>
@@ -2863,7 +4183,7 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="26"/>
       <c r="G14">
         <v>0.63329999999999997</v>
       </c>
@@ -2878,7 +4198,7 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="26"/>
       <c r="G15">
         <v>0.82220000000000004</v>
       </c>
@@ -2893,7 +4213,7 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="26"/>
       <c r="G16">
         <v>0.83330000000000004</v>
       </c>
@@ -2908,7 +4228,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="26">
         <v>5</v>
       </c>
       <c r="G17">
@@ -2925,7 +4245,7 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="26"/>
       <c r="G18">
         <v>0.82</v>
       </c>
@@ -2940,7 +4260,7 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="26"/>
       <c r="G19">
         <v>0.8367</v>
       </c>
@@ -2955,7 +4275,7 @@
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="26"/>
       <c r="G20">
         <v>0.89</v>
       </c>
@@ -2970,7 +4290,7 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="26"/>
       <c r="G21">
         <v>0.85</v>
       </c>
@@ -2985,7 +4305,7 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="26">
         <v>6</v>
       </c>
       <c r="G22">
@@ -3002,7 +4322,7 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="26"/>
       <c r="G23">
         <v>0.73609999999999998</v>
       </c>
@@ -3017,7 +4337,7 @@
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="26"/>
       <c r="G24">
         <v>0.82499999999999996</v>
       </c>
@@ -3032,7 +4352,7 @@
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="26"/>
       <c r="G25">
         <v>0.8528</v>
       </c>
@@ -3047,7 +4367,7 @@
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="26"/>
       <c r="G26">
         <v>0.875</v>
       </c>
@@ -3062,7 +4382,7 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="26">
         <v>12</v>
       </c>
       <c r="G27">
@@ -3079,7 +4399,7 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="26"/>
       <c r="G28">
         <v>0.58240000000000003</v>
       </c>
@@ -3094,7 +4414,7 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="26"/>
       <c r="G29">
         <v>0.69969999999999999</v>
       </c>
@@ -3109,7 +4429,7 @@
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="26"/>
       <c r="G30">
         <v>0.67600000000000005</v>
       </c>
@@ -3124,7 +4444,7 @@
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="26"/>
       <c r="G31">
         <v>0.70950000000000002</v>
       </c>
@@ -3139,7 +4459,7 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="26">
         <v>20</v>
       </c>
       <c r="G32">
@@ -3152,11 +4472,11 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="26"/>
       <c r="G33">
         <v>0.53010000000000002</v>
       </c>
@@ -3167,11 +4487,11 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="26"/>
       <c r="G34">
         <v>0.71660000000000001</v>
       </c>
@@ -3182,11 +4502,11 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="26"/>
       <c r="G35">
         <v>0.68059999999999998</v>
       </c>
@@ -3197,11 +4517,11 @@
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="20"/>
+      <c r="E36" s="26"/>
       <c r="G36">
         <v>0.75670000000000004</v>
       </c>
@@ -3212,8 +4532,354 @@
         <v>2.23E-2</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="26">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="H38">
+        <v>0.58379999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.15939999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="I39">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="D38:D72"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E58:E62"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E11"/>
@@ -3226,4 +4892,746 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>0.49</v>
+      </c>
+      <c r="C1">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D1">
+        <v>0.495</v>
+      </c>
+      <c r="E1">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H1">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="I1">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="J1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>0.34</v>
+      </c>
+      <c r="C2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K2">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.62</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+      <c r="H3">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.77</v>
+      </c>
+      <c r="F4">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G4">
+        <v>0.625</v>
+      </c>
+      <c r="H4">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.72</v>
+      </c>
+      <c r="J4">
+        <v>0.66</v>
+      </c>
+      <c r="K4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.54242424242424203</v>
+      </c>
+      <c r="C6">
+        <v>0.48363636363636398</v>
+      </c>
+      <c r="D6">
+        <v>0.51878787878787902</v>
+      </c>
+      <c r="E6">
+        <v>0.46545454545454501</v>
+      </c>
+      <c r="F6">
+        <v>0.47939393939393998</v>
+      </c>
+      <c r="G6">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="H6">
+        <v>0.53939393939393898</v>
+      </c>
+      <c r="I6">
+        <v>0.57636363636363597</v>
+      </c>
+      <c r="J6">
+        <v>0.54424242424242397</v>
+      </c>
+      <c r="K6">
+        <v>0.55030303030302996</v>
+      </c>
+      <c r="L6">
+        <v>0.53272727272727305</v>
+      </c>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>0.41454545454545499</v>
+      </c>
+      <c r="C7">
+        <v>0.50303030303030305</v>
+      </c>
+      <c r="D7">
+        <v>0.51696969696969697</v>
+      </c>
+      <c r="E7">
+        <v>0.530909090909091</v>
+      </c>
+      <c r="F7">
+        <v>0.56727272727272704</v>
+      </c>
+      <c r="G7">
+        <v>0.63030303030303003</v>
+      </c>
+      <c r="H7">
+        <v>0.59575757575757604</v>
+      </c>
+      <c r="I7">
+        <v>0.59030303030303</v>
+      </c>
+      <c r="J7">
+        <v>0.61333333333333295</v>
+      </c>
+      <c r="K7">
+        <v>0.586666666666667</v>
+      </c>
+      <c r="L7">
+        <v>0.57393939393939397</v>
+      </c>
+      <c r="M7" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M5:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0.50666666666666704</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.55151515151515196</v>
+      </c>
+      <c r="D2">
+        <v>0.56121212121212105</v>
+      </c>
+      <c r="E2">
+        <v>0.55090909090909101</v>
+      </c>
+      <c r="F2">
+        <v>0.54848484848484902</v>
+      </c>
+      <c r="G2">
+        <v>0.51090909090909098</v>
+      </c>
+      <c r="H2">
+        <v>0.53393939393939405</v>
+      </c>
+      <c r="I2">
+        <v>0.51757575757575802</v>
+      </c>
+      <c r="J2">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="K2">
+        <v>0.53212121212121199</v>
+      </c>
+      <c r="L2">
+        <v>0.527272727272727</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0.54424242424242397</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.55454545454545501</v>
+      </c>
+      <c r="D3">
+        <v>0.54787878787878797</v>
+      </c>
+      <c r="E3">
+        <v>0.54787878787878797</v>
+      </c>
+      <c r="F3">
+        <v>0.55333333333333301</v>
+      </c>
+      <c r="G3">
+        <v>0.55272727272727296</v>
+      </c>
+      <c r="H3">
+        <v>0.54545454545454597</v>
+      </c>
+      <c r="I3">
+        <v>0.54909090909090896</v>
+      </c>
+      <c r="J3">
+        <v>0.54484848484848503</v>
+      </c>
+      <c r="K3">
+        <v>0.53212121212121199</v>
+      </c>
+      <c r="L3">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.53454545454545499</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.57515151515151497</v>
+      </c>
+      <c r="D4">
+        <v>0.560606060606061</v>
+      </c>
+      <c r="E4">
+        <v>0.559393939393939</v>
+      </c>
+      <c r="F4">
+        <v>0.54909090909090896</v>
+      </c>
+      <c r="G4">
+        <v>0.54242424242424203</v>
+      </c>
+      <c r="H4">
+        <v>0.54969696969697002</v>
+      </c>
+      <c r="I4">
+        <v>0.54303030303030297</v>
+      </c>
+      <c r="J4">
+        <v>0.54242424242424303</v>
+      </c>
+      <c r="K4">
+        <v>0.54484848484848503</v>
+      </c>
+      <c r="L4">
+        <v>0.54121212121212103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0.55090909090909101</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.57454545454545503</v>
+      </c>
+      <c r="D5">
+        <v>0.54909090909090896</v>
+      </c>
+      <c r="E5">
+        <v>0.55515151515151495</v>
+      </c>
+      <c r="F5">
+        <v>0.55454545454545501</v>
+      </c>
+      <c r="G5">
+        <v>0.54242424242424203</v>
+      </c>
+      <c r="H5">
+        <v>0.55393939393939395</v>
+      </c>
+      <c r="I5">
+        <v>0.55333333333333301</v>
+      </c>
+      <c r="J5">
+        <v>0.53636363636363604</v>
+      </c>
+      <c r="K5">
+        <v>0.55272727272727296</v>
+      </c>
+      <c r="L5">
+        <v>0.558181818181818</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0.54606060606060602</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.57454545454545503</v>
+      </c>
+      <c r="D6">
+        <v>0.56848484848484904</v>
+      </c>
+      <c r="E6">
+        <v>0.559393939393939</v>
+      </c>
+      <c r="F6">
+        <v>0.57030303030302998</v>
+      </c>
+      <c r="G6">
+        <v>0.55757575757575795</v>
+      </c>
+      <c r="H6">
+        <v>0.556969696969697</v>
+      </c>
+      <c r="I6">
+        <v>0.55333333333333301</v>
+      </c>
+      <c r="J6">
+        <v>0.55090909090909101</v>
+      </c>
+      <c r="K6">
+        <v>0.55393939393939395</v>
+      </c>
+      <c r="L6">
+        <v>0.54484848484848503</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0.54303030303030297</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="D7">
+        <v>0.56909090909090898</v>
+      </c>
+      <c r="E7">
+        <v>0.56909090909090898</v>
+      </c>
+      <c r="F7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.55757575757575795</v>
+      </c>
+      <c r="H7">
+        <v>0.56181818181818199</v>
+      </c>
+      <c r="I7">
+        <v>0.57393939393939397</v>
+      </c>
+      <c r="J7">
+        <v>0.56303030303030299</v>
+      </c>
+      <c r="K7">
+        <v>0.559393939393939</v>
+      </c>
+      <c r="L7">
+        <v>0.55454545454545501</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0.55454545454545501</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="D8">
+        <v>0.56424242424242399</v>
+      </c>
+      <c r="E8">
+        <v>0.56303030303030299</v>
+      </c>
+      <c r="F8">
+        <v>0.56727272727272704</v>
+      </c>
+      <c r="G8">
+        <v>0.56181818181818199</v>
+      </c>
+      <c r="H8">
+        <v>0.560606060606061</v>
+      </c>
+      <c r="I8">
+        <v>0.56121212121212105</v>
+      </c>
+      <c r="J8">
+        <v>0.56303030303030299</v>
+      </c>
+      <c r="K8">
+        <v>0.57030303030302998</v>
+      </c>
+      <c r="L8">
+        <v>0.57333333333333303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0.54363636363636403</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.57757575757575697</v>
+      </c>
+      <c r="D9">
+        <v>0.56909090909090898</v>
+      </c>
+      <c r="E9">
+        <v>0.56787878787878798</v>
+      </c>
+      <c r="F9">
+        <v>0.556969696969697</v>
+      </c>
+      <c r="G9">
+        <v>0.56181818181818199</v>
+      </c>
+      <c r="H9">
+        <v>0.56909090909090898</v>
+      </c>
+      <c r="I9">
+        <v>0.57212121212121203</v>
+      </c>
+      <c r="J9">
+        <v>0.58363636363636395</v>
+      </c>
+      <c r="K9">
+        <v>0.56484848484848504</v>
+      </c>
+      <c r="L9">
+        <v>0.57939393939393902</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.559393939393939</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.58121212121212096</v>
+      </c>
+      <c r="D10">
+        <v>0.57030303030302998</v>
+      </c>
+      <c r="E10">
+        <v>0.55575757575757601</v>
+      </c>
+      <c r="F10">
+        <v>0.56787878787878798</v>
+      </c>
+      <c r="G10">
+        <v>0.56484848484848504</v>
+      </c>
+      <c r="H10">
+        <v>0.57818181818181802</v>
+      </c>
+      <c r="I10">
+        <v>0.56545454545454599</v>
+      </c>
+      <c r="J10">
+        <v>0.57636363636363597</v>
+      </c>
+      <c r="K10">
+        <v>0.55333333333333301</v>
+      </c>
+      <c r="L10">
+        <v>0.57454545454545503</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>0.57818181818181802</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.57939393939394002</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.56909090909090898</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.55636363636363595</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.587878787878788</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.56787878787878798</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.57454545454545503</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.58303030303030301</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.57272727272727297</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.57151515151515198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0.55151515151515196</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.57212121212121203</v>
+      </c>
+      <c r="D12">
+        <v>0.58606060606060595</v>
+      </c>
+      <c r="E12">
+        <v>0.53878787878787904</v>
+      </c>
+      <c r="F12">
+        <v>0.54242424242424203</v>
+      </c>
+      <c r="G12">
+        <v>0.56545454545454499</v>
+      </c>
+      <c r="H12">
+        <v>0.55878787878787906</v>
+      </c>
+      <c r="I12">
+        <v>0.560606060606061</v>
+      </c>
+      <c r="J12">
+        <v>0.55878787878787906</v>
+      </c>
+      <c r="K12">
+        <v>0.54121212121212103</v>
+      </c>
+      <c r="L12">
+        <v>0.56606060606060604</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.54606060606060602</v>
+      </c>
+      <c r="B2">
+        <v>0.56969696969697003</v>
+      </c>
+      <c r="C2">
+        <v>0.558181818181818</v>
+      </c>
+      <c r="D2">
+        <v>0.57515151515151497</v>
+      </c>
+      <c r="E2">
+        <v>0.56484848484848504</v>
+      </c>
+      <c r="F2">
+        <v>0.56363636363636405</v>
+      </c>
+      <c r="G2">
+        <v>0.57636363636363597</v>
+      </c>
+      <c r="H2">
+        <v>0.56969696969697003</v>
+      </c>
+      <c r="I2">
+        <v>0.559393939393939</v>
+      </c>
+      <c r="J2">
+        <v>0.56303030303030299</v>
+      </c>
+      <c r="K2">
+        <v>0.56969696969697003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.54363636363636403</v>
+      </c>
+      <c r="B4">
+        <v>0.49575757575757601</v>
+      </c>
+      <c r="C4">
+        <v>0.52666666666666695</v>
+      </c>
+      <c r="D4">
+        <v>0.47393939393939399</v>
+      </c>
+      <c r="E4">
+        <v>0.50969696969696998</v>
+      </c>
+      <c r="F4">
+        <v>0.51878787878787902</v>
+      </c>
+      <c r="G4">
+        <v>0.53575757575757599</v>
+      </c>
+      <c r="H4">
+        <v>0.56545454545454499</v>
+      </c>
+      <c r="I4">
+        <v>0.56848484848484904</v>
+      </c>
+      <c r="J4">
+        <v>0.53272727272727305</v>
+      </c>
+      <c r="K4">
+        <v>0.53636363636363604</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="简单结果" sheetId="5" r:id="rId1"/>
     <sheet name="无监督" sheetId="1" r:id="rId2"/>
-    <sheet name="半监督" sheetId="2" r:id="rId3"/>
+    <sheet name="半监督" sheetId="9" r:id="rId3"/>
     <sheet name="对k的敏感度" sheetId="6" r:id="rId4"/>
     <sheet name="两个参数" sheetId="7" r:id="rId5"/>
     <sheet name="传递层数" sheetId="8" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
   <si>
     <t>实验时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,58 +34,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>准确率最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率平均差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无加权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YaleB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>改进内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>准确率最大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准确率平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准确率平均差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LLRR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最短路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无加权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YaleB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改进内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YaleB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等概率加权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,14 +115,6 @@
   </si>
   <si>
     <t>等高率加权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等概率加权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等概率加权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COIL20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ORL64x64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +296,14 @@
   </si>
   <si>
     <t>yale32*32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaleB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLRR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,6 +488,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,7 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -822,33 +806,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -890,13 +874,13 @@
       <c r="F4" s="12">
         <v>0.70416666666666705</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="N4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -917,11 +901,11 @@
       <c r="F5" s="12">
         <v>0.70273437500000002</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1006,7 +990,7 @@
     <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.515625</v>
@@ -1041,7 +1025,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0.51328125000000002</v>
@@ -1076,50 +1060,50 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="A29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -1140,11 +1124,11 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1165,11 +1149,11 @@
       <c r="F32" s="7">
         <v>0.73333333333333295</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1190,11 +1174,11 @@
       <c r="F33" s="12">
         <v>0.6875</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1215,11 +1199,11 @@
       <c r="F34" s="12">
         <v>0.75</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -1240,11 +1224,11 @@
       <c r="F35" s="7">
         <v>0.77666666666666695</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1265,11 +1249,11 @@
       <c r="F36" s="7">
         <v>0.745</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
@@ -1290,26 +1274,26 @@
       <c r="F37" s="14">
         <v>0.71899999999999997</v>
       </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="A38" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1329,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+    <sheetView topLeftCell="A146" workbookViewId="0">
       <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
@@ -1348,25 +1332,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1374,15 +1358,15 @@
         <v>42916</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="26">
+        <v>14</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="27">
         <v>2</v>
       </c>
       <c r="G2">
@@ -1397,13 +1381,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3">
         <v>0.5078125</v>
       </c>
@@ -1416,13 +1400,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4">
         <v>0.5234375</v>
       </c>
@@ -1435,13 +1419,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="G5">
         <v>0.96875</v>
       </c>
@@ -1454,13 +1438,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6">
         <v>0.96875</v>
       </c>
@@ -1473,10 +1457,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26">
+        <v>7</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27">
         <v>3</v>
       </c>
       <c r="G7">
@@ -1491,10 +1475,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8">
         <v>0.34895833333333298</v>
       </c>
@@ -1507,10 +1491,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9">
         <v>0.39583333333333298</v>
       </c>
@@ -1523,10 +1507,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10">
         <v>0.67708333333333304</v>
       </c>
@@ -1539,10 +1523,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11">
         <v>0.71354166666666696</v>
       </c>
@@ -1555,10 +1539,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26">
+        <v>7</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27">
         <v>4</v>
       </c>
       <c r="G12">
@@ -1573,10 +1557,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13">
         <v>0.29296875</v>
       </c>
@@ -1589,10 +1573,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14">
         <v>0.3515625</v>
       </c>
@@ -1605,10 +1589,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15">
         <v>0.7421875</v>
       </c>
@@ -1621,10 +1605,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16">
         <v>0.76171875</v>
       </c>
@@ -1637,10 +1621,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26">
+        <v>7</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27">
         <v>5</v>
       </c>
       <c r="G17">
@@ -1655,10 +1639,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
       <c r="G18">
         <v>0.23125000000000001</v>
       </c>
@@ -1671,10 +1655,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19">
         <v>0.33437499999999998</v>
       </c>
@@ -1687,10 +1671,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20">
         <v>0.76249999999999996</v>
       </c>
@@ -1703,10 +1687,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21">
         <v>0.83437499999999998</v>
       </c>
@@ -1719,10 +1703,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26">
+        <v>7</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27">
         <v>6</v>
       </c>
       <c r="G22">
@@ -1737,10 +1721,10 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
       <c r="G23">
         <v>0.21354166666666699</v>
       </c>
@@ -1753,10 +1737,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
       <c r="G24">
         <v>0.32291666666666702</v>
       </c>
@@ -1769,10 +1753,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
       <c r="G25">
         <v>0.7421875</v>
       </c>
@@ -1785,10 +1769,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
       <c r="G26">
         <v>0.74739583333333304</v>
       </c>
@@ -1801,10 +1785,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26">
+        <v>7</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27">
         <v>12</v>
       </c>
       <c r="G27">
@@ -1819,10 +1803,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
       <c r="G28">
         <v>0.16015625</v>
       </c>
@@ -1835,10 +1819,10 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
       <c r="G29">
         <v>0.24609375</v>
       </c>
@@ -1851,10 +1835,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
       <c r="G30">
         <v>0.60286458333333304</v>
       </c>
@@ -1867,10 +1851,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
       <c r="G31">
         <v>0.5703125</v>
       </c>
@@ -1883,10 +1867,10 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26">
+        <v>7</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27">
         <v>20</v>
       </c>
       <c r="G32">
@@ -1901,10 +1885,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
       <c r="G33">
         <v>0.125</v>
       </c>
@@ -1917,10 +1901,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
       <c r="G34">
         <v>0.2578125</v>
       </c>
@@ -1933,10 +1917,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="G35">
         <v>0.56328124999999996</v>
       </c>
@@ -1949,10 +1933,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
       <c r="G36">
         <v>0.57890624999999996</v>
       </c>
@@ -1966,15 +1950,15 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="26">
+        <v>14</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="27">
         <v>2</v>
       </c>
       <c r="G37">
@@ -1989,13 +1973,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
       <c r="G38">
         <v>0.50694444444444398</v>
       </c>
@@ -2008,13 +1992,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
       <c r="G39">
         <v>1</v>
       </c>
@@ -2027,13 +2011,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="G40">
         <v>1</v>
       </c>
@@ -2046,13 +2030,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
       <c r="G41">
         <v>0.78472222222222199</v>
       </c>
@@ -2065,10 +2049,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26">
+        <v>7</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27">
         <v>3</v>
       </c>
       <c r="G42">
@@ -2083,10 +2067,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
       <c r="G43">
         <v>1</v>
       </c>
@@ -2099,10 +2083,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
       <c r="G44">
         <v>1</v>
       </c>
@@ -2115,10 +2099,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
       <c r="G45">
         <v>1</v>
       </c>
@@ -2131,10 +2115,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
       <c r="G46">
         <v>1</v>
       </c>
@@ -2147,201 +2131,201 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26">
+        <v>7</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26">
+        <v>7</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26">
+        <v>7</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26">
+        <v>7</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26">
+        <v>7</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="26">
+        <v>14</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="27">
         <v>2</v>
       </c>
       <c r="G72">
@@ -2356,13 +2340,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
       <c r="G73">
         <v>0.95</v>
       </c>
@@ -2375,13 +2359,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
       <c r="G74">
         <v>0.95</v>
       </c>
@@ -2394,13 +2378,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
       <c r="G75">
         <v>0.95</v>
       </c>
@@ -2413,13 +2397,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
       <c r="G76">
         <v>1</v>
       </c>
@@ -2432,10 +2416,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26">
+        <v>7</v>
+      </c>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27">
         <v>3</v>
       </c>
       <c r="G77">
@@ -2450,10 +2434,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
       <c r="G78">
         <v>0.76666666666666705</v>
       </c>
@@ -2466,10 +2450,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
       <c r="G79">
         <v>0.9</v>
       </c>
@@ -2482,10 +2466,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
       <c r="G80">
         <v>0.83333333333333304</v>
       </c>
@@ -2498,10 +2482,10 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
       <c r="G81">
         <v>0.73333333333333295</v>
       </c>
@@ -2514,10 +2498,10 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26">
+        <v>7</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27">
         <v>4</v>
       </c>
       <c r="G82">
@@ -2532,10 +2516,10 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
       <c r="G83">
         <v>0.6</v>
       </c>
@@ -2548,10 +2532,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
       <c r="G84">
         <v>0.67500000000000004</v>
       </c>
@@ -2564,10 +2548,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
       <c r="G85">
         <v>0.67500000000000004</v>
       </c>
@@ -2580,10 +2564,10 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
       <c r="G86">
         <v>0.75</v>
       </c>
@@ -2596,10 +2580,10 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26">
+        <v>7</v>
+      </c>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27">
         <v>5</v>
       </c>
       <c r="G87">
@@ -2614,10 +2598,10 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
       <c r="G88">
         <v>0.64</v>
       </c>
@@ -2630,10 +2614,10 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
       <c r="G89">
         <v>0.57999999999999996</v>
       </c>
@@ -2646,10 +2630,10 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
       <c r="G90">
         <v>0.57999999999999996</v>
       </c>
@@ -2662,10 +2646,10 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
       <c r="G91">
         <v>0.76</v>
       </c>
@@ -2678,10 +2662,10 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26">
+        <v>7</v>
+      </c>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27">
         <v>6</v>
       </c>
       <c r="G92">
@@ -2696,10 +2680,10 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
       <c r="G93">
         <v>0.6</v>
       </c>
@@ -2712,10 +2696,10 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
       <c r="G94">
         <v>0.66666666666666696</v>
       </c>
@@ -2728,10 +2712,10 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
       <c r="G95">
         <v>0.63333333333333297</v>
       </c>
@@ -2744,10 +2728,10 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
       <c r="G96">
         <v>0.8</v>
       </c>
@@ -2760,10 +2744,10 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26">
+        <v>7</v>
+      </c>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27">
         <v>12</v>
       </c>
       <c r="G97">
@@ -2778,10 +2762,10 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
       <c r="G98">
         <v>0.61666666666666703</v>
       </c>
@@ -2794,10 +2778,10 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
       <c r="G99">
         <v>0.43333333333333302</v>
       </c>
@@ -2810,10 +2794,10 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
       <c r="G100">
         <v>0.56666666666666698</v>
       </c>
@@ -2826,10 +2810,10 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
       <c r="G101">
         <v>0.81666666666666698</v>
       </c>
@@ -2842,10 +2826,10 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26">
+        <v>7</v>
+      </c>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27">
         <v>20</v>
       </c>
       <c r="G102">
@@ -2860,10 +2844,10 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
       <c r="G103">
         <v>0.47</v>
       </c>
@@ -2876,10 +2860,10 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
       <c r="G104">
         <v>0.51</v>
       </c>
@@ -2892,10 +2876,10 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
       <c r="G105">
         <v>0.51500000000000001</v>
       </c>
@@ -2908,10 +2892,10 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
       <c r="G106">
         <v>0.76</v>
       </c>
@@ -2924,10 +2908,10 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26">
+        <v>7</v>
+      </c>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27">
         <v>30</v>
       </c>
       <c r="G107">
@@ -2942,10 +2926,10 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
       <c r="G108">
         <v>0.50666666666666704</v>
       </c>
@@ -2958,10 +2942,10 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
       <c r="G109">
         <v>0.52666666666666695</v>
       </c>
@@ -2974,10 +2958,10 @@
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
       <c r="G110">
         <v>0.56999999999999995</v>
       </c>
@@ -2990,10 +2974,10 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
       <c r="G111">
         <v>0.72</v>
       </c>
@@ -3005,39 +2989,39 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="21"/>
+      <c r="A114" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C115" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -3249,39 +3233,39 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="21"/>
+      <c r="A127" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C128" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E128" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H128" t="s">
         <v>53</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="I128" t="s">
         <v>54</v>
-      </c>
-      <c r="H128" t="s">
-        <v>59</v>
-      </c>
-      <c r="I128" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -3381,7 +3365,7 @@
       <c r="F132" s="12">
         <v>0.64069767441860503</v>
       </c>
-      <c r="H132" s="27">
+      <c r="H132" s="19">
         <v>0.37652582159624398</v>
       </c>
       <c r="I132">
@@ -3571,59 +3555,59 @@
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A142" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="21"/>
-      <c r="J142" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K142" s="20"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
-      <c r="N142" s="20"/>
-      <c r="O142" s="21"/>
+      <c r="A142" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="22"/>
+      <c r="J142" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K142" s="21"/>
+      <c r="L142" s="21"/>
+      <c r="M142" s="21"/>
+      <c r="N142" s="21"/>
+      <c r="O142" s="22"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C143" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K143" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="L143" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O143" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
@@ -3950,944 +3934,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>8.1500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="E2" s="26">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="H2">
-        <v>0.41</v>
-      </c>
-      <c r="I2">
-        <v>0.27229999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="G3">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="H3">
-        <v>0.92169999999999996</v>
-      </c>
-      <c r="I3">
-        <v>5.74E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="G5">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="H5">
-        <v>0.96830000000000005</v>
-      </c>
-      <c r="I5">
-        <v>1.35E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="G6">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="H6">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="I6">
-        <v>6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="26">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0.7611</v>
-      </c>
-      <c r="H7">
-        <v>0.50829999999999997</v>
-      </c>
-      <c r="I7">
-        <v>0.1895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="G8">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="H8">
-        <v>0.75170000000000003</v>
-      </c>
-      <c r="I8">
-        <v>7.8600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="G9">
-        <v>0.69440000000000002</v>
-      </c>
-      <c r="H9">
-        <v>0.58560000000000001</v>
-      </c>
-      <c r="I9">
-        <v>7.2400000000000006E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="G10">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="H10">
-        <v>0.75829999999999997</v>
-      </c>
-      <c r="I10">
-        <v>6.3600000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="G11">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="H11">
-        <v>0.75939999999999996</v>
-      </c>
-      <c r="I11">
-        <v>7.5499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="26">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>0.6542</v>
-      </c>
-      <c r="H12">
-        <v>0.37919999999999998</v>
-      </c>
-      <c r="I12">
-        <v>0.17269999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="G13">
-        <v>0.81669999999999998</v>
-      </c>
-      <c r="H13">
-        <v>0.74939999999999996</v>
-      </c>
-      <c r="I13">
-        <v>6.1800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="G14">
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="H14">
-        <v>0.57830000000000004</v>
-      </c>
-      <c r="I14">
-        <v>5.5800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="G15">
-        <v>0.82220000000000004</v>
-      </c>
-      <c r="H15">
-        <v>0.76219999999999999</v>
-      </c>
-      <c r="I15">
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="G16">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="H16">
-        <v>0.7742</v>
-      </c>
-      <c r="I16">
-        <v>4.8099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="26">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>0.85</v>
-      </c>
-      <c r="H17">
-        <v>0.3483</v>
-      </c>
-      <c r="I17">
-        <v>0.3095</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="G18">
-        <v>0.82</v>
-      </c>
-      <c r="H18">
-        <v>0.7097</v>
-      </c>
-      <c r="I18">
-        <v>6.2899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="G19">
-        <v>0.8367</v>
-      </c>
-      <c r="H19">
-        <v>0.7903</v>
-      </c>
-      <c r="I19">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="G20">
-        <v>0.89</v>
-      </c>
-      <c r="H20">
-        <v>0.82330000000000003</v>
-      </c>
-      <c r="I20">
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="G21">
-        <v>0.85</v>
-      </c>
-      <c r="H21">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="I21">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="26">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>0.8639</v>
-      </c>
-      <c r="H22">
-        <v>0.7792</v>
-      </c>
-      <c r="I22">
-        <v>7.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="G23">
-        <v>0.73609999999999998</v>
-      </c>
-      <c r="H23">
-        <v>0.69689999999999996</v>
-      </c>
-      <c r="I23">
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="G24">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="H24">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="I24">
-        <v>2.8799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="G25">
-        <v>0.8528</v>
-      </c>
-      <c r="H25">
-        <v>0.80030000000000001</v>
-      </c>
-      <c r="I25">
-        <v>4.65E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="G26">
-        <v>0.875</v>
-      </c>
-      <c r="H26">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="I26">
-        <v>4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="26">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="H27">
-        <v>0.38250000000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.1946</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="G28">
-        <v>0.58240000000000003</v>
-      </c>
-      <c r="H28">
-        <v>0.51280000000000003</v>
-      </c>
-      <c r="I28">
-        <v>3.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="G29">
-        <v>0.69969999999999999</v>
-      </c>
-      <c r="H29">
-        <v>0.66010000000000002</v>
-      </c>
-      <c r="I29">
-        <v>2.3300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="G30">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="H30">
-        <v>0.6341</v>
-      </c>
-      <c r="I30">
-        <v>3.3700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="G31">
-        <v>0.70950000000000002</v>
-      </c>
-      <c r="H31">
-        <v>0.65669999999999995</v>
-      </c>
-      <c r="I31">
-        <v>4.1799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="26">
-        <v>20</v>
-      </c>
-      <c r="G32">
-        <v>0.24</v>
-      </c>
-      <c r="H32">
-        <v>0.18049999999999999</v>
-      </c>
-      <c r="I32">
-        <v>5.5199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="G33">
-        <v>0.53010000000000002</v>
-      </c>
-      <c r="H33">
-        <v>0.47389999999999999</v>
-      </c>
-      <c r="I33">
-        <v>2.8199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="G34">
-        <v>0.71660000000000001</v>
-      </c>
-      <c r="H34">
-        <v>0.67930000000000001</v>
-      </c>
-      <c r="I34">
-        <v>2.9600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="G35">
-        <v>0.68059999999999998</v>
-      </c>
-      <c r="H35">
-        <v>0.65769999999999995</v>
-      </c>
-      <c r="I35">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="G36">
-        <v>0.75670000000000004</v>
-      </c>
-      <c r="H36">
-        <v>0.71760000000000002</v>
-      </c>
-      <c r="I36">
-        <v>2.23E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="26">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <v>0.83819999999999995</v>
-      </c>
-      <c r="H38">
-        <v>0.58379999999999999</v>
-      </c>
-      <c r="I38">
-        <v>0.15939999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="I39">
-        <v>8.3099999999999993E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="B4">
+        <v>0.38479999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.60119999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.63619999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D38:D72"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E31"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4909,7 +4019,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1">
         <v>0.49</v>
@@ -4944,7 +4054,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0.34</v>
@@ -4979,7 +4089,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0.57750000000000001</v>
@@ -5014,7 +4124,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0.58499999999999996</v>
@@ -5049,15 +4159,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0.54242424242424203</v>
@@ -5092,11 +4202,11 @@
       <c r="L6">
         <v>0.53272727272727305</v>
       </c>
-      <c r="M6" s="24"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.41454545454545499</v>
@@ -5131,7 +4241,7 @@
       <c r="L7">
         <v>0.57393939393939397</v>
       </c>
-      <c r="M7" s="24"/>
+      <c r="M7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5557,7 +4667,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">

--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" activeTab="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="64">
   <si>
     <t>实验时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,22 @@
   </si>
   <si>
     <t>LLRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LADP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无加权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等概率加权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -1311,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3894,9 +3910,252 @@
         <v>0.53636363636363604</v>
       </c>
     </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="22"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>5</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0.628571428571428</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0.55142857142857105</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0.53428571428571403</v>
+      </c>
+      <c r="E156" s="11">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="F156" s="12">
+        <v>0.625714285714286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>10</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0.63857142857142901</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0.432857142857143</v>
+      </c>
+      <c r="E157" s="11">
+        <v>0.54285714285714304</v>
+      </c>
+      <c r="F157" s="12">
+        <v>0.59571428571428597</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>15</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0.583809523809524</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.39428571428571402</v>
+      </c>
+      <c r="D158" s="6">
+        <v>0.39047619047619098</v>
+      </c>
+      <c r="E158" s="11">
+        <v>0.45142857142857101</v>
+      </c>
+      <c r="F158" s="12">
+        <v>0.48857142857142899</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>20</v>
+      </c>
+      <c r="B159" s="4">
+        <v>0.622142857142857</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0.370714285714286</v>
+      </c>
+      <c r="D159" s="6">
+        <v>0.35571428571428598</v>
+      </c>
+      <c r="E159" s="11">
+        <v>0.47142857142857097</v>
+      </c>
+      <c r="F159" s="12">
+        <v>0.41071428571428598</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>25</v>
+      </c>
+      <c r="B160" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C160" s="4">
+        <v>0.33542857142857102</v>
+      </c>
+      <c r="D160" s="6">
+        <v>0.33314285714285702</v>
+      </c>
+      <c r="E160" s="11">
+        <v>0.42057142857142898</v>
+      </c>
+      <c r="F160" s="12">
+        <v>0.40457142857142903</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>30</v>
+      </c>
+      <c r="B161" s="4">
+        <v>0.55238095238095197</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0.332380952380952</v>
+      </c>
+      <c r="D161" s="6">
+        <v>0.335238095238095</v>
+      </c>
+      <c r="E161" s="11">
+        <v>0.43238095238095198</v>
+      </c>
+      <c r="F161" s="12">
+        <v>0.414761904761905</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>35</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0.59469387755101999</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0.33632653061224499</v>
+      </c>
+      <c r="D162" s="6">
+        <v>0.335102040816327</v>
+      </c>
+      <c r="E162" s="11">
+        <v>0.41795918367346901</v>
+      </c>
+      <c r="F162" s="12">
+        <v>0.38530612244897999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="8">
+        <v>40</v>
+      </c>
+      <c r="B163" s="9">
+        <v>0.436785714285714</v>
+      </c>
+      <c r="C163" s="9">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="D163" s="10">
+        <v>0.34964285714285698</v>
+      </c>
+      <c r="E163" s="13">
+        <v>0.39321428571428602</v>
+      </c>
+      <c r="F163" s="14">
+        <v>0.41571428571428598</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="18">
+        <v>45</v>
+      </c>
+      <c r="B164">
+        <v>0.61587301587301602</v>
+      </c>
+      <c r="C164">
+        <v>0.32761904761904798</v>
+      </c>
+      <c r="D164">
+        <v>0.33746031746031802</v>
+      </c>
+      <c r="E164">
+        <v>0.39269841269841299</v>
+      </c>
+      <c r="F164">
+        <v>0.404444444444444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="18">
+        <v>60</v>
+      </c>
+      <c r="B167">
+        <v>0.57619047619047603</v>
+      </c>
+      <c r="C167">
+        <v>0.33285714285714302</v>
+      </c>
+      <c r="D167">
+        <v>0.33928571428571402</v>
+      </c>
+      <c r="E167">
+        <v>0.39547619047618998</v>
+      </c>
+      <c r="F167">
+        <v>0.39261904761904798</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A142:F142"/>
+  <mergeCells count="30">
     <mergeCell ref="J142:O142"/>
     <mergeCell ref="A127:F127"/>
     <mergeCell ref="F52:F56"/>
@@ -3912,6 +4171,13 @@
     <mergeCell ref="E72:E111"/>
     <mergeCell ref="F72:F76"/>
     <mergeCell ref="F77:F81"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="E2:E36"/>
+    <mergeCell ref="E37:E71"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="F27:F31"/>
     <mergeCell ref="F82:F86"/>
     <mergeCell ref="F32:F36"/>
     <mergeCell ref="F2:F6"/>
@@ -3919,12 +4185,7 @@
     <mergeCell ref="F12:F16"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="F22:F26"/>
-    <mergeCell ref="E2:E36"/>
-    <mergeCell ref="E37:E71"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="A142:F142"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3934,67 +4195,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>8.1500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.28149999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.48270000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
         <v>0.38479999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0.69840000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5">
         <v>0.56259999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0.78459999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6">
         <v>0.60119999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0.84789999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.88580000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8">
         <v>0.63619999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.90690000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.78465909090909103</v>
       </c>
     </row>
   </sheetData>
